--- a/Desarrollo/EvaEduca/Gestión/EE - CP.xlsx
+++ b/Desarrollo/EvaEduca/Gestión/EE - CP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Fin:</t>
   </si>
   <si>
-    <t>Huaman/DBA</t>
+    <t>Condor/DBA</t>
   </si>
   <si>
     <t>Actividad</t>
@@ -122,7 +122,7 @@
     <t>EE - PC.docx</t>
   </si>
   <si>
-    <t>Chávez/JP y Huamán/DBA</t>
+    <t>Chávez/JP y Condor/DBA</t>
   </si>
   <si>
     <t>Elaborar Cronograma del Proyecto</t>
@@ -216,9 +216,6 @@
     <t>EE-DERCU-07.docx</t>
   </si>
   <si>
-    <t>Huamán/DBA</t>
-  </si>
-  <si>
     <t>Documento de Especificación de Requisitos: CU08-Subir rúbrica de evaluación</t>
   </si>
   <si>
@@ -318,7 +315,7 @@
     <t>EE-RDS.docx</t>
   </si>
   <si>
-    <t>Chávez/JP, Huamán/DBA, Yomela/DF, Ayala/DB, Guzmán/DB, Román/AS</t>
+    <t>Chávez/JP, Condor/DBA, Yomela/DF, Ayala/DB, Guzmán/DB, Román/AS</t>
   </si>
   <si>
     <t>Realizar Sprint Retrospective</t>
@@ -384,13 +381,13 @@
     <t>Verificar y finalizar documento de Especificación de la Base de Datos</t>
   </si>
   <si>
-    <t>Huaman/DBA, Chávez/JP</t>
+    <t>Condor/DBA, Chávez/JP</t>
   </si>
   <si>
     <t>Verificar y finalizar la Arquitectura y Diseño del Software</t>
   </si>
   <si>
-    <t>Román/AS, Chávez/JP, Huamán/DBA</t>
+    <t>Román/AS, Chávez/JP, Condor/DBA</t>
   </si>
   <si>
     <t>Verificar y finalizar la Guía de Estilos</t>
@@ -1534,8 +1531,8 @@
       <c r="D24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="40" t="s">
-        <v>61</v>
+      <c r="E24" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="F24" s="23">
         <v>45402.0</v>
@@ -1551,10 +1548,10 @@
       <c r="A25" s="15"/>
       <c r="B25" s="38"/>
       <c r="C25" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>62</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>6</v>
@@ -1573,10 +1570,10 @@
       <c r="A26" s="15"/>
       <c r="B26" s="38"/>
       <c r="C26" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="E26" s="34" t="s">
         <v>2</v>
@@ -1595,10 +1592,10 @@
       <c r="A27" s="15"/>
       <c r="B27" s="38"/>
       <c r="C27" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>67</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>5</v>
@@ -1617,10 +1614,10 @@
       <c r="A28" s="15"/>
       <c r="B28" s="38"/>
       <c r="C28" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>69</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>2</v>
@@ -1639,10 +1636,10 @@
       <c r="A29" s="15"/>
       <c r="B29" s="38"/>
       <c r="C29" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>71</v>
       </c>
       <c r="E29" s="34" t="s">
         <v>2</v>
@@ -1654,17 +1651,17 @@
         <v>45404.0</v>
       </c>
       <c r="H29" s="28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="15"/>
       <c r="B30" s="38"/>
       <c r="C30" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>73</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>9</v>
@@ -1676,17 +1673,17 @@
         <v>45404.0</v>
       </c>
       <c r="H30" s="28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="15"/>
       <c r="B31" s="38"/>
       <c r="C31" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>9</v>
@@ -1698,17 +1695,17 @@
         <v>45404.0</v>
       </c>
       <c r="H31" s="28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="15"/>
       <c r="B32" s="41"/>
       <c r="C32" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>77</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>2</v>
@@ -1720,22 +1717,22 @@
         <v>45404.0</v>
       </c>
       <c r="H32" s="28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="15"/>
       <c r="B33" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="D33" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="E33" s="34" t="s">
         <v>80</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>81</v>
       </c>
       <c r="F33" s="23">
         <v>45402.0</v>
@@ -1744,22 +1741,22 @@
         <v>45404.0</v>
       </c>
       <c r="H33" s="28">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="15"/>
       <c r="B34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="D34" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="E34" s="34" t="s">
         <v>84</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>85</v>
       </c>
       <c r="F34" s="23">
         <v>45404.0</v>
@@ -1768,22 +1765,22 @@
         <v>45407.0</v>
       </c>
       <c r="H34" s="28">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="15"/>
       <c r="B35" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="D35" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>16</v>
+      <c r="E35" s="37" t="s">
+        <v>2</v>
       </c>
       <c r="F35" s="23">
         <v>45403.0</v>
@@ -1798,13 +1795,13 @@
     <row r="36">
       <c r="A36" s="15"/>
       <c r="B36" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="D36" s="26" t="s">
         <v>90</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>91</v>
       </c>
       <c r="E36" s="34" t="s">
         <v>14</v>
@@ -1822,16 +1819,16 @@
     <row r="37">
       <c r="A37" s="15"/>
       <c r="B37" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="D37" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="E37" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>95</v>
       </c>
       <c r="F37" s="23">
         <v>45412.0</v>
@@ -1846,13 +1843,13 @@
     <row r="38">
       <c r="A38" s="15"/>
       <c r="B38" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="D38" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>98</v>
       </c>
       <c r="E38" s="27" t="s">
         <v>5</v>
@@ -1869,10 +1866,10 @@
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>99</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>100</v>
       </c>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
@@ -1888,19 +1885,23 @@
     <row r="40">
       <c r="A40" s="15"/>
       <c r="B40" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="D40" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="E40" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+      <c r="F40" s="23">
+        <v>45425.0</v>
+      </c>
+      <c r="G40" s="23">
+        <v>45448.0</v>
+      </c>
       <c r="H40" s="24">
         <v>0.0</v>
       </c>
@@ -1908,19 +1909,23 @@
     <row r="41">
       <c r="A41" s="15"/>
       <c r="B41" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
+      <c r="F41" s="23">
+        <v>45425.0</v>
+      </c>
+      <c r="G41" s="23">
+        <v>45448.0</v>
+      </c>
       <c r="H41" s="24">
         <v>0.0</v>
       </c>
@@ -1928,19 +1933,23 @@
     <row r="42">
       <c r="A42" s="15"/>
       <c r="B42" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>88</v>
       </c>
       <c r="E42" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
+      <c r="F42" s="23">
+        <v>45425.0</v>
+      </c>
+      <c r="G42" s="23">
+        <v>45448.0</v>
+      </c>
       <c r="H42" s="24">
         <v>0.0</v>
       </c>
@@ -1948,19 +1957,23 @@
     <row r="43">
       <c r="A43" s="15"/>
       <c r="B43" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="D43" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="E43" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+      <c r="F43" s="23">
+        <v>45442.0</v>
+      </c>
+      <c r="G43" s="23">
+        <v>45453.0</v>
+      </c>
       <c r="H43" s="24">
         <v>0.0</v>
       </c>
@@ -1968,29 +1981,33 @@
     <row r="44">
       <c r="A44" s="15"/>
       <c r="B44" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>108</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>109</v>
       </c>
       <c r="E44" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+      <c r="F44" s="23">
+        <v>45453.0</v>
+      </c>
+      <c r="G44" s="23">
+        <v>45463.0</v>
+      </c>
       <c r="H44" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="43" t="s">
         <v>110</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>111</v>
       </c>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
@@ -2006,19 +2023,23 @@
     <row r="46">
       <c r="A46" s="15"/>
       <c r="B46" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+      <c r="F46" s="23">
+        <v>45463.0</v>
+      </c>
+      <c r="G46" s="23">
+        <v>45470.0</v>
+      </c>
       <c r="H46" s="24">
         <v>0.0</v>
       </c>
@@ -2026,19 +2047,23 @@
     <row r="47">
       <c r="A47" s="15"/>
       <c r="B47" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+      <c r="F47" s="23">
+        <v>45463.0</v>
+      </c>
+      <c r="G47" s="23">
+        <v>45470.0</v>
+      </c>
       <c r="H47" s="24">
         <v>0.0</v>
       </c>
@@ -2046,19 +2071,23 @@
     <row r="48">
       <c r="A48" s="15"/>
       <c r="B48" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
+      <c r="F48" s="23">
+        <v>45463.0</v>
+      </c>
+      <c r="G48" s="23">
+        <v>45470.0</v>
+      </c>
       <c r="H48" s="24">
         <v>0.0</v>
       </c>
@@ -2066,19 +2095,23 @@
     <row r="49">
       <c r="A49" s="15"/>
       <c r="B49" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+      <c r="F49" s="23">
+        <v>45463.0</v>
+      </c>
+      <c r="G49" s="23">
+        <v>45470.0</v>
+      </c>
       <c r="H49" s="24">
         <v>0.0</v>
       </c>
@@ -2086,19 +2119,23 @@
     <row r="50">
       <c r="A50" s="15"/>
       <c r="B50" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C50" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>84</v>
-      </c>
       <c r="E50" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="F50" s="23">
+        <v>45470.0</v>
+      </c>
+      <c r="G50" s="23">
+        <v>45472.0</v>
+      </c>
       <c r="H50" s="24">
         <v>0.0</v>
       </c>
@@ -2106,19 +2143,23 @@
     <row r="51">
       <c r="A51" s="15"/>
       <c r="B51" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="D51" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>123</v>
-      </c>
       <c r="E51" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="F51" s="23">
+        <v>45463.0</v>
+      </c>
+      <c r="G51" s="23">
+        <v>45470.0</v>
+      </c>
       <c r="H51" s="24">
         <v>0.0</v>
       </c>
@@ -2126,19 +2167,23 @@
     <row r="52">
       <c r="A52" s="15"/>
       <c r="B52" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="D52" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="E52" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
+      <c r="F52" s="23">
+        <v>45470.0</v>
+      </c>
+      <c r="G52" s="23">
+        <v>45473.0</v>
+      </c>
       <c r="H52" s="24">
         <v>0.0</v>
       </c>
@@ -2146,19 +2191,23 @@
     <row r="53">
       <c r="A53" s="15"/>
       <c r="B53" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="D53" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="E53" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
+      <c r="F53" s="23">
+        <v>45473.0</v>
+      </c>
+      <c r="G53" s="23">
+        <v>45477.0</v>
+      </c>
       <c r="H53" s="24">
         <v>0.0</v>
       </c>
@@ -2166,19 +2215,23 @@
     <row r="54">
       <c r="A54" s="15"/>
       <c r="B54" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="E54" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
+      <c r="F54" s="23">
+        <v>45473.0</v>
+      </c>
+      <c r="G54" s="23">
+        <v>45477.0</v>
+      </c>
       <c r="H54" s="24">
         <v>0.0</v>
       </c>
@@ -2186,29 +2239,33 @@
     <row r="55">
       <c r="A55" s="15"/>
       <c r="B55" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="D55" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>132</v>
       </c>
       <c r="E55" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
+      <c r="F55" s="23">
+        <v>45473.0</v>
+      </c>
+      <c r="G55" s="23">
+        <v>45477.0</v>
+      </c>
       <c r="H55" s="24">
         <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="51" t="s">
         <v>133</v>
-      </c>
-      <c r="B56" s="51" t="s">
-        <v>134</v>
       </c>
       <c r="C56" s="52"/>
       <c r="D56" s="52"/>
